--- a/Mardis.Engine.Web/wwwroot/Listado.xlsx
+++ b/Mardis.Engine.Web/wwwroot/Listado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Fecha de Captación</t>
   </si>
@@ -65,25 +65,34 @@
     <t>DISTRIBUIDOR</t>
   </si>
   <si>
-    <t>272117</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>LA 13 Y CUENCA</t>
-  </si>
-  <si>
-    <t>ANGEL PINCAY BERMELLO</t>
-  </si>
-  <si>
-    <t>0978661559</t>
-  </si>
-  <si>
-    <t>GUAYAS</t>
-  </si>
-  <si>
-    <t>GUAYAQUIL</t>
+    <t>3259113692</t>
+  </si>
+  <si>
+    <t>tienda_tradicional</t>
+  </si>
+  <si>
+    <t>Víveres Karina</t>
+  </si>
+  <si>
+    <t>Rumiñahui</t>
+  </si>
+  <si>
+    <t>Frente a la mecánica de presión GOYES</t>
+  </si>
+  <si>
+    <t>ALVA NATALIA</t>
+  </si>
+  <si>
+    <t>0982160558</t>
+  </si>
+  <si>
+    <t>022375049</t>
+  </si>
+  <si>
+    <t>PICHINCHA</t>
+  </si>
+  <si>
+    <t>QUITO</t>
   </si>
   <si>
     <t>CENTRO</t>
@@ -95,235 +104,667 @@
     <t>En Proceso</t>
   </si>
   <si>
-    <t>Equipos de Frio</t>
-  </si>
-  <si>
-    <t>272087</t>
-  </si>
-  <si>
-    <t>ORQUIDEAS MZ. 50 V.2</t>
-  </si>
-  <si>
-    <t>MARIA YUMBO TENESACA</t>
-  </si>
-  <si>
-    <t>0979803862</t>
-  </si>
-  <si>
-    <t>TAR-3</t>
-  </si>
-  <si>
-    <t>farmacia</t>
-  </si>
-  <si>
-    <t>Farmacia sana sana</t>
-  </si>
-  <si>
-    <t>Vía al aeropuerto y calle 108</t>
-  </si>
-  <si>
-    <t>Dentro del terminal</t>
-  </si>
-  <si>
-    <t>Ruben Kuffo</t>
-  </si>
-  <si>
-    <t>98190952</t>
-  </si>
-  <si>
-    <t>1791715772001</t>
-  </si>
-  <si>
-    <t>TAR-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MICROM.MARUJITA</t>
-  </si>
-  <si>
-    <t>I.ISABELA N4-359-GUEPI</t>
-  </si>
-  <si>
-    <t>PICHINCHA</t>
-  </si>
-  <si>
-    <t>QUITO</t>
+    <t>1500205818001</t>
+  </si>
+  <si>
+    <t>GABRIEL CASTELLANOS</t>
+  </si>
+  <si>
+    <t>21590113820</t>
+  </si>
+  <si>
+    <t>Mini despensa la delicia</t>
+  </si>
+  <si>
+    <t>Santa Catalina n6-141 pasaje la delicia</t>
+  </si>
+  <si>
+    <t>Junto a la cooperativa de taxi el rojas</t>
+  </si>
+  <si>
+    <t>MARÍA AZUCENA</t>
+  </si>
+  <si>
+    <t>0985733226</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listo  Implementar.</t>
+  </si>
+  <si>
+    <t>1705344354001</t>
+  </si>
+  <si>
+    <t>UIO186763</t>
+  </si>
+  <si>
+    <t>MICROMERCADO MARTITHA</t>
+  </si>
+  <si>
+    <t>FLORENCIA S/N BORROMINI</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>MARTHA CECILIA</t>
+  </si>
+  <si>
+    <t>0994018178</t>
+  </si>
+  <si>
+    <t>2895081</t>
   </si>
   <si>
     <t>NORTE</t>
   </si>
   <si>
-    <t>39494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listo  Implementar.</t>
-  </si>
-  <si>
-    <t>272034</t>
-  </si>
-  <si>
-    <t>COOP.BUENOS AIRES MZ 308 SL 15</t>
-  </si>
-  <si>
-    <t>NARCIZA LUCAS</t>
-  </si>
-  <si>
-    <t>0993241828</t>
-  </si>
-  <si>
-    <t>272121</t>
-  </si>
-  <si>
-    <t>N/N</t>
-  </si>
-  <si>
-    <t>PAQUISHA MZ. 303 SOLAR 7</t>
-  </si>
-  <si>
-    <t>PASCUALES</t>
-  </si>
-  <si>
-    <t>NELLY PAGUAY MOROCHO</t>
-  </si>
-  <si>
-    <t>0981723722</t>
-  </si>
-  <si>
-    <t>914961500</t>
-  </si>
-  <si>
-    <t>Salsa Sana Hospital Gye</t>
-  </si>
-  <si>
-    <t>25va</t>
-  </si>
-  <si>
-    <t>Calle C</t>
-  </si>
-  <si>
-    <t>271988</t>
-  </si>
-  <si>
-    <t>PASCUALES CALLE 5TA Y AV 4TA</t>
-  </si>
-  <si>
-    <t>MARIELA BAYONA PINELA</t>
-  </si>
-  <si>
-    <t>0981754293</t>
-  </si>
-  <si>
-    <t>2423060779</t>
-  </si>
-  <si>
-    <t>272102</t>
-  </si>
-  <si>
-    <t>ASAD BUCARAM MZ 352 SOLAR 7</t>
-  </si>
-  <si>
-    <t>JUAN JIMENEZ</t>
-  </si>
-  <si>
-    <t>0958853135</t>
-  </si>
-  <si>
-    <t>272036</t>
-  </si>
-  <si>
-    <t>MUCHO LOTE MZ. 2357 S. 17</t>
-  </si>
-  <si>
-    <t>ALEX CARVALLO</t>
-  </si>
-  <si>
-    <t>2896558</t>
-  </si>
-  <si>
-    <t>0993956763</t>
-  </si>
-  <si>
-    <t>205581</t>
-  </si>
-  <si>
-    <t>BASTION POPULAR BLOQUE 1A MZ 597 SL 16</t>
-  </si>
-  <si>
-    <t>MANUELA TOABANDA RUIZ</t>
-  </si>
-  <si>
-    <t>0967823994</t>
-  </si>
-  <si>
-    <t>251983</t>
-  </si>
-  <si>
-    <t>ALBORADA ETAPA 4 MZ F5 VILLA 1</t>
-  </si>
-  <si>
-    <t>LUIS BERMEO CAMPOVERDE</t>
-  </si>
-  <si>
-    <t>0980056703</t>
-  </si>
-  <si>
-    <t>256606</t>
-  </si>
-  <si>
-    <t>AVE. NARCIZA DE JESUS MZ. 1187 S. 3</t>
-  </si>
-  <si>
-    <t>KAREN PICO SANCHEZ</t>
-  </si>
-  <si>
-    <t>0991629112</t>
-  </si>
-  <si>
-    <t>271752</t>
-  </si>
-  <si>
-    <t>SAUCES 8 MZ. 454 VILLA 11</t>
-  </si>
-  <si>
-    <t>ANGEL MONTES MACIAS</t>
-  </si>
-  <si>
-    <t>0994569280</t>
-  </si>
-  <si>
-    <t>0980082580</t>
-  </si>
-  <si>
-    <t>271771</t>
-  </si>
-  <si>
-    <t>LA 33 Y BRASIL</t>
-  </si>
-  <si>
-    <t>NESTOR BAYAS LOPEZ</t>
-  </si>
-  <si>
-    <t>0986402705</t>
-  </si>
-  <si>
-    <t>1234</t>
+    <t xml:space="preserve">1720707700   </t>
+  </si>
+  <si>
+    <t>UIO162425</t>
+  </si>
+  <si>
+    <t>VIVERES EL MISTER</t>
+  </si>
+  <si>
+    <t>VICENTE ALVAREZ N6-53 SERGIO PAZMIÔö£+ªO</t>
+  </si>
+  <si>
+    <t>CLARA ARACELY</t>
+  </si>
+  <si>
+    <t>09o3531518</t>
+  </si>
+  <si>
+    <t>2374353</t>
+  </si>
+  <si>
+    <t>5806</t>
+  </si>
+  <si>
+    <t>1709573529001</t>
+  </si>
+  <si>
+    <t>UIO168869</t>
+  </si>
+  <si>
+    <t>micromercado</t>
+  </si>
+  <si>
+    <t>Micro santa catalina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Catalina e6-183  napolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagonal a la cooperativa de taxi  rojas</t>
+  </si>
+  <si>
+    <t>MARIELA ELIZABETH</t>
+  </si>
+  <si>
+    <t>0989094916</t>
+  </si>
+  <si>
+    <t>3551246</t>
+  </si>
+  <si>
+    <t>1719814616001</t>
+  </si>
+  <si>
+    <t>UIOP1234</t>
+  </si>
+  <si>
+    <t>Panadería Super Pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle san francisco E8-166y francisco Garcia  san francisco de la Tola</t>
+  </si>
+  <si>
+    <t>Frente a taller</t>
+  </si>
+  <si>
+    <t>Rosa Margoth</t>
+  </si>
+  <si>
+    <t>097023444</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1717134520 </t>
+  </si>
+  <si>
+    <t>TPS1069801</t>
+  </si>
+  <si>
+    <t>Micromercado Don Manuelito</t>
+  </si>
+  <si>
+    <t>Rocafuerte 470 y Bolivar</t>
+  </si>
+  <si>
+    <t>Diagonal a eventos Bombini</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>0984850034</t>
+  </si>
+  <si>
+    <t>2379120</t>
+  </si>
+  <si>
+    <t>0502310709001</t>
+  </si>
+  <si>
+    <t>5511122320</t>
+  </si>
+  <si>
+    <t>POLLO BROSTER</t>
+  </si>
+  <si>
+    <t>Simón Bolibar 1069 y Chimborazo</t>
+  </si>
+  <si>
+    <t>50 metros de VÍVERES ANDY</t>
+  </si>
+  <si>
+    <t>ANA LUCIA</t>
+  </si>
+  <si>
+    <t>0984583563</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>21489113657</t>
+  </si>
+  <si>
+    <t>Víveres Ricardo</t>
+  </si>
+  <si>
+    <t>Eugenio Espejo N2-66 Y Antonio José de Sucre</t>
+  </si>
+  <si>
+    <t>Frente a Centro Vacaciones</t>
+  </si>
+  <si>
+    <t>Luis Ricardo</t>
+  </si>
+  <si>
+    <t>0987870583</t>
+  </si>
+  <si>
+    <t>0998313052</t>
+  </si>
+  <si>
+    <t>5803</t>
+  </si>
+  <si>
+    <t>1718276353001</t>
+  </si>
+  <si>
+    <t>24540119120</t>
+  </si>
+  <si>
+    <t>panaderia_artesanal</t>
+  </si>
+  <si>
+    <t>Panadería Sabor ambateño</t>
+  </si>
+  <si>
+    <t>Río San Pedro lote 4 y av interoceanica</t>
+  </si>
+  <si>
+    <t>Frente a helados de paila pomasqui</t>
+  </si>
+  <si>
+    <t>María Patricia</t>
+  </si>
+  <si>
+    <t>0983413836</t>
+  </si>
+  <si>
+    <t>5817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603112269   </t>
+  </si>
+  <si>
+    <t>UIO068980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANADERIA  DEL VALLE</t>
+  </si>
+  <si>
+    <t>GONZALO DE VERA OE1-167 EUGENIO ESPEJO</t>
+  </si>
+  <si>
+    <t>Maria Belen</t>
+  </si>
+  <si>
+    <t>0980642735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1720072246 </t>
+  </si>
+  <si>
+    <t>3260113707</t>
+  </si>
+  <si>
+    <t>Víveres Ana</t>
+  </si>
+  <si>
+    <t>Boyacá E5-185</t>
+  </si>
+  <si>
+    <t>Frente a las canchas sintéticas</t>
+  </si>
+  <si>
+    <t>Ana Luisa</t>
+  </si>
+  <si>
+    <t>0969240292</t>
+  </si>
+  <si>
+    <t>022375409</t>
+  </si>
+  <si>
+    <t>1003475892001</t>
+  </si>
+  <si>
+    <t>5801</t>
+  </si>
+  <si>
+    <t>5799</t>
+  </si>
+  <si>
+    <t>UIO175230</t>
+  </si>
+  <si>
+    <t>SU TIENDA</t>
+  </si>
+  <si>
+    <t>COTOPAXI E3-50 LATACUNGA</t>
+  </si>
+  <si>
+    <t>Ana Lucía</t>
+  </si>
+  <si>
+    <t>0962589965</t>
+  </si>
+  <si>
+    <t>0224514312</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>4661119420</t>
+  </si>
+  <si>
+    <t>Víveres yorely</t>
+  </si>
+  <si>
+    <t>Juan José flores s5-188 lorenzo garaicoa</t>
+  </si>
+  <si>
+    <t>Junto a area verde diagonal a viveres la isla</t>
+  </si>
+  <si>
+    <t>Elva maria</t>
+  </si>
+  <si>
+    <t>0988254027</t>
+  </si>
+  <si>
+    <t>2379507</t>
+  </si>
+  <si>
+    <t>5816</t>
+  </si>
+  <si>
+    <t>2100055108001</t>
   </si>
   <si>
     <t>Rechazado Dist.</t>
   </si>
   <si>
-    <t>271770</t>
-  </si>
-  <si>
-    <t>CALLE 8AVA. Y SEDALANA</t>
-  </si>
-  <si>
-    <t>NATHALY ALVAREZ TORREZ</t>
-  </si>
-  <si>
-    <t>043086297</t>
-  </si>
-  <si>
-    <t>0989773632</t>
+    <t>24990119770</t>
+  </si>
+  <si>
+    <t>fruteria_verduleria</t>
+  </si>
+  <si>
+    <t>Legumbres y verduras</t>
+  </si>
+  <si>
+    <t>Gaspar carvajal sn Ines Jimenez</t>
+  </si>
+  <si>
+    <t>Junto a restaurant ambrosia</t>
+  </si>
+  <si>
+    <t>Vilma del Rocio</t>
+  </si>
+  <si>
+    <t>0990625991</t>
+  </si>
+  <si>
+    <t>5815</t>
+  </si>
+  <si>
+    <t>0603624891001</t>
+  </si>
+  <si>
+    <t>UIO186641</t>
+  </si>
+  <si>
+    <t>VIVERES TUMBACO</t>
+  </si>
+  <si>
+    <t>ABDON CALDERON OE3-107 PSJE. A</t>
+  </si>
+  <si>
+    <t>Julio Jose</t>
+  </si>
+  <si>
+    <t>0984835567</t>
+  </si>
+  <si>
+    <t>2371141</t>
+  </si>
+  <si>
+    <t>1706330600001</t>
+  </si>
+  <si>
+    <t>4561119020</t>
+  </si>
+  <si>
+    <t>Fruteria el Económico</t>
+  </si>
+  <si>
+    <t>Leonidas proaño marcha</t>
+  </si>
+  <si>
+    <t>iglesia de tanda una 2 cuadra</t>
+  </si>
+  <si>
+    <t>Medardo</t>
+  </si>
+  <si>
+    <t>0969138909</t>
+  </si>
+  <si>
+    <t>5820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1715683460  </t>
+  </si>
+  <si>
+    <t>UIO186615</t>
+  </si>
+  <si>
+    <t>isabella</t>
+  </si>
+  <si>
+    <t>el Carrizal e10-190 san francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagonal  ala escuela</t>
+  </si>
+  <si>
+    <t>Maxia Liliana</t>
+  </si>
+  <si>
+    <t>0992958941</t>
+  </si>
+  <si>
+    <t>2052245</t>
+  </si>
+  <si>
+    <t>1720923364001</t>
+  </si>
+  <si>
+    <t>UIO175220</t>
+  </si>
+  <si>
+    <t>PEQUEÑA TERCENA LA CASERITA</t>
+  </si>
+  <si>
+    <t>24 DE AGOSTO OE-58 PADRE JUAN PALOMINO</t>
+  </si>
+  <si>
+    <t>María Bartola</t>
+  </si>
+  <si>
+    <t>0998406568</t>
+  </si>
+  <si>
+    <t>3806788</t>
+  </si>
+  <si>
+    <t>Captado</t>
+  </si>
+  <si>
+    <t>1703877918001</t>
+  </si>
+  <si>
+    <t>TPS7136674</t>
+  </si>
+  <si>
+    <t>Frutas y Legumbres</t>
+  </si>
+  <si>
+    <t>José Vinuesa y av Interoceanica</t>
+  </si>
+  <si>
+    <t>Parada de taxis entrada la Morita</t>
+  </si>
+  <si>
+    <t>VANESSA SUSANA</t>
+  </si>
+  <si>
+    <t>0969342783</t>
+  </si>
+  <si>
+    <t>096788645</t>
+  </si>
+  <si>
+    <t>5821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0605062447   </t>
+  </si>
+  <si>
+    <t>24640119320</t>
+  </si>
+  <si>
+    <t>Víveres Javier</t>
+  </si>
+  <si>
+    <t>san francisco y la dolorosa</t>
+  </si>
+  <si>
+    <t>junto a la para de taxis tolgar</t>
+  </si>
+  <si>
+    <t>Maria Isaura</t>
+  </si>
+  <si>
+    <t>0988156393</t>
+  </si>
+  <si>
+    <t>5823</t>
+  </si>
+  <si>
+    <t>1716962160001</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>4711119820</t>
+  </si>
+  <si>
+    <t>Micro Mercado Ivis</t>
+  </si>
+  <si>
+    <t>Oswaldo guayasamin N9-03 y Manuela garaycoa</t>
+  </si>
+  <si>
+    <t>Diagonal al mercado del arenal</t>
+  </si>
+  <si>
+    <t>Diana Elizabeth</t>
+  </si>
+  <si>
+    <t>0995821930 / 0997982324</t>
+  </si>
+  <si>
+    <t>5818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1712344587  </t>
+  </si>
+  <si>
+    <t>24538119092</t>
+  </si>
+  <si>
+    <t>Mini market</t>
+  </si>
+  <si>
+    <t>Segundo Guerra E8-121 av Oswaldo guayasamin</t>
+  </si>
+  <si>
+    <t>Frente al mercado del el arenal</t>
+  </si>
+  <si>
+    <t>Alexandra Elizabeth</t>
+  </si>
+  <si>
+    <t>02244512</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>UIO153673</t>
+  </si>
+  <si>
+    <t>VIVERES MARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONIDAS PROAÑO  S14-81 AQUADUCTO PAPALLACTA</t>
+  </si>
+  <si>
+    <t>Maria de los angeles</t>
+  </si>
+  <si>
+    <t>0984304326</t>
+  </si>
+  <si>
+    <t>2899-441</t>
+  </si>
+  <si>
+    <t>5814</t>
+  </si>
+  <si>
+    <t>1705718334001</t>
+  </si>
+  <si>
+    <t>5791</t>
+  </si>
+  <si>
+    <t>UIO092812</t>
+  </si>
+  <si>
+    <t>Panadería dulce y miel</t>
+  </si>
+  <si>
+    <t>Av Oswaldo guayasaminE4-11 Guayaquil</t>
+  </si>
+  <si>
+    <t>Junto a la distribución de bonice</t>
+  </si>
+  <si>
+    <t>Mónica Patricia</t>
+  </si>
+  <si>
+    <t>0992688358</t>
+  </si>
+  <si>
+    <t>2377357</t>
+  </si>
+  <si>
+    <t>1709277972001</t>
+  </si>
+  <si>
+    <t>21490113670</t>
+  </si>
+  <si>
+    <t>MAS DISTRIBUIDORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco de Orellana  Oe1-65 y Gonzalo pizarro</t>
+  </si>
+  <si>
+    <t>Almacen de ropa La económica</t>
+  </si>
+  <si>
+    <t>Gloria Patricia</t>
+  </si>
+  <si>
+    <t>0994456934</t>
+  </si>
+  <si>
+    <t>0991088779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0605884758  </t>
+  </si>
+  <si>
+    <t>5805</t>
+  </si>
+  <si>
+    <t>UIO182210</t>
+  </si>
+  <si>
+    <t>Víveres Carmita</t>
+  </si>
+  <si>
+    <t>Barbara esparza sn josefa tinajero</t>
+  </si>
+  <si>
+    <t>Diagonal a iglesia evangelica</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>0987076400</t>
+  </si>
+  <si>
+    <t>5819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1722593389  </t>
   </si>
 </sst>
 </file>
@@ -372,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +874,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>43148.3951388889</v>
+        <v>43276.6576388889</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>17</v>
@@ -442,849 +883,1997 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>43147.6104166667</v>
+        <v>43276.4944444444</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43174</v>
+        <v>43276.6041666667</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>43265</v>
+        <v>43276.6611111111</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="P5" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43147.6763888889</v>
+        <v>43276.5180555556</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43147.4881944444</v>
+        <v>43284.4423611111</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43146.8256944444</v>
+        <v>43276.4145833333</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43147.4680555556</v>
+        <v>43286.5361111111</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43146.3131944444</v>
+        <v>43276.5395833333</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43148.5006944444</v>
+        <v>43283.4861111111</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43147.5868055556</v>
+        <v>43277.7770833333</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H12" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="J12" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43147.5138888889</v>
+        <v>43276.5180555556</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43148.4569444444</v>
+        <v>43276.4145833333</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43147.7305555556</v>
+        <v>43276.5180555556</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43147.7888888889</v>
+        <v>43276.5840277778</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43148.4138888889</v>
+        <v>43283.5791666667</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43148.3784722222</v>
+        <v>43276.5840277778</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>43276.6041666667</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>43283.6798611111</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>43276.4548611111</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>43283.6354166667</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>43283.4666666667</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>43283.5270833333</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>43283.4590277778</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>43283.5243055556</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>43276.6576388889</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>43283.6826388889</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>43283.5701388889</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>43276.4944444444</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>43283.4944444444</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>43276.6611111111</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>43276.5180555556</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>43276.4368055556</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>43276.4395833333</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>43276.4368055556</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>43276.5395833333</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="J37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q37" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>43276.4548611111</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>43276.4395833333</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>43283.6583333333</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
